--- a/biology/Botanique/Liste_de_plantes_endémiques_de_Chypre/Liste_de_plantes_endémiques_de_Chypre.xlsx
+++ b/biology/Botanique/Liste_de_plantes_endémiques_de_Chypre/Liste_de_plantes_endémiques_de_Chypre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article donne une liste de plantes endémiques de l'île de Chypre (espèces, sous-espèces et variétés). Les sous-espèces sont signalées par l'abréviation ssp., les variétés par var.
 Une espèce de plante est dite endémique d'une zone géographique lorsqu'elle n'existe que dans cette zone à l'état spontané.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,6 +554,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,8 +583,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pinacées
-Cèdre de Chypre (Cedrus brevifolia), parfois considéré comme une sous-espèce ou une variété du cèdre du Liban (Cedrus libani ssp. brevifolia ou Cedrus libani var. brevifolia)</t>
+          <t>Pinacées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cèdre de Chypre (Cedrus brevifolia), parfois considéré comme une sous-espèce ou une variété du cèdre du Liban (Cedrus libani ssp. brevifolia ou Cedrus libani var. brevifolia)</t>
         </is>
       </c>
     </row>
@@ -578,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -598,19 +619,126 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Alliacées
-Allium autumnale
+          <t>Alliacées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Allium autumnale
 Allium cupani ssp. cyprium
 Allium paniculatum ssp. exaltatum
-Allium willeanum
-Amaranthacées
-Bosea cypria
-Apiacées (Ombellifères)
-Bupleurum sintenisii
+Allium willeanum</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Amaranthacées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bosea cypria</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Apiacées (Ombellifères)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bupleurum sintenisii
 Ferulago cypria
-Pimpinella cypria
-Astéracées (Composées)
-Anthemis plutonia
+Pimpinella cypria</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Astéracées (Composées)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Anthemis plutonia
 Anthemis tricolor
 Carlina involucrata ssp. cyprica
 Carlina pygmaea
@@ -625,13 +753,81 @@
 Scorzonera troodea
 Senecio glaucus ssp. cyprius
 Taraxacum aphrogenes
-Taraxacum holmboei
-Boraginacées
-Cynoglossum troodi
+Taraxacum holmboei</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Boraginacées</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cynoglossum troodi
 Onosma caespitosum
-Onosma fruticosum
-Brassicacées (Crucifères)
-Alyssum akamasicum
+Onosma fruticosum</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Brassicacées (Crucifères)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Alyssum akamasicum
 Alyssum chondrogynum
 Alyssum troodi
 Arabis cypria
@@ -639,9 +835,43 @@
 Arabis purpurea
 Brassica hilarionis
 Malcolmia nana var. glabra
-Thlaspi cyprium
-Caryophyllacées
-Arenaria rhodia ssp. cypria
+Thlaspi cyprium</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Caryophyllacées</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Arenaria rhodia ssp. cypria
 Dianthus cyprius
 Dianthus strictus var. troodi
 Minuartia sintenisii
@@ -651,29 +881,267 @@
 Silene fraudatrix
 Silene galataea
 Silene gemmata
-Silene laevigata
-Cistacées
-Helianthemum obtusifolium
-Clusiacées (Guttifères)
-Hypericum repens
-Crassulaceae
-Rosularia cypria
+Silene laevigata</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cistacées</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Helianthemum obtusifolium</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Clusiacées (Guttifères)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hypericum repens</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Crassulaceae</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rosularia cypria
 Rosularia pallidiflora
 Sedum cyprium
 Sedum lampusae
 Sedum microstachyum
-Sedum porphyreum
-Cypéracées
-Cyperus cyprius
-Dipsacées
-Pterocephalus multiflorus ssp. multiflorus
+Sedum porphyreum</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cypéracées</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cyperus cyprius</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dipsacées</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Pterocephalus multiflorus ssp. multiflorus
 Pterocephalus multiflorus ssp. obtusifolius
-Scabiosa cyprica
-Euphorbiacées
-Euphorbia cassia ssp. rigoi
-Euphorbia veneris
-Fabacées
-Astragalus cyprius
+Scabiosa cyprica</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Euphorbiacées</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Euphorbia cassia ssp. rigoi
+Euphorbia veneris</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fabacées</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Astragalus cyprius
 Astragalus echinus var. chionistrae
 Astragalus macrocarpus ssp. lefkarensis
 Astragalus suberosus var. hartmannii
@@ -681,21 +1149,157 @@
 Hedysarum cyprium
 Onobrychis venosa
 Trifolium campestre ssp. paphium
-Trifolium pamphylicum var. dolichodondium
-Fagacées
-Quercus alnifolia
-Hyacinthacées
-Chionodoxa lochiae
+Trifolium pamphylicum var. dolichodondium</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fagacées</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Quercus alnifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Hyacinthacées</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Chionodoxa lochiae
 Ornithogalum chionophilum
 Ornithogalum pedicellare
-Scilla morrisii
-Iridacées
-Crocus cyprius
+Scilla morrisii</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Iridacées</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Crocus cyprius
 Crocus hartmannianus
 Crocus veneris
-Gladiolus triphyllus
-Lamiacées (Labiées)
-Acinos exiguus
+Gladiolus triphyllus</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Lamiacées (Labiées)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Acinos exiguus
 Acinos troodi
 Ballota integrifolia
 Mentha longifolia ssp. cyprica
@@ -717,41 +1321,449 @@
 Teucrium cyprium ssp. kyreniae
 Teucrium divaricatum ssp. canescens
 Teucrium micropodioides
-Thymus integer
-Liliacées
-Gagea juliae
-Tulipa cypria
-Orchidacées (Orchidées)
-Ophrys kotschyi
+Thymus integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Liliacées</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Gagea juliae
+Tulipa cypria</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Orchidacées (Orchidées)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ophrys kotschyi
 Ophrys lapethica
-Orchis anatolica var. troodi
-Orobanchacées
-Orobanche cypria
-Plumbaginacées
-Limonium albidum ssp. cyprium
-Poacées (Graminées)
-Agrostis cypricola
+Orchis anatolica var. troodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Orobanchacées</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Orobanche cypria</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Plumbaginacées</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Limonium albidum ssp. cyprium</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Poacées (Graminées)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Agrostis cypricola
 Brachypodium firmifolium
-Lindbergella sintenisii
-Primulacées
-Cyclamen cyprium
-Ranunculacées
-Delphinium caseyi
+Lindbergella sintenisii</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Primulacées</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Cyclamen cyprium</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ranunculacées</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Delphinium caseyi
 Ranunculus cadmicus var. cyprius
 Ranunculus kykkoensis
-Ranunculus millefoliatus ssp. leptaleus
-Rosacées
-Rosa chionistrae
-Rubiacées
-Asperula cypria
+Ranunculus millefoliatus ssp. leptaleus</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Rosacées</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Rosa chionistrae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Rubiacées</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Asperula cypria
 Rubia laurae
-Valantia eburnea
-Scrophulariacées
-Odontites cypria
-Urticacées
-Urtica dioica ssp. cypria
-Valérianacées
-Centranthus calcitrapa ssp. orbiculatus</t>
+Valantia eburnea</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Scrophulariacées</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Odontites cypria</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Urticacées</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Urtica dioica ssp. cypria</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_endémiques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_end%C3%A9miques_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Valérianacées</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Centranthus calcitrapa ssp. orbiculatus</t>
         </is>
       </c>
     </row>
